--- a/Line_Calculations/Case 1 Lines.xlsx
+++ b/Line_Calculations/Case 1 Lines.xlsx
@@ -5,27 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ED_carlos\Documents\GitHub\PowerSystem2\Line_Calculations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\AppData\Local\Programs\Python\Python38-32\GITHUB\Assignement 2\PowerSystem2\Line_Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D694E3-959F-491A-B05B-1D46A4ADBE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138B78DC-658F-49F3-A3E0-6CF4DFE52EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-480" yWindow="735" windowWidth="21600" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -245,19 +242,19 @@
     <t>L11</t>
   </si>
   <si>
-    <t>4X1250</t>
-  </si>
-  <si>
     <t>2X1250</t>
   </si>
   <si>
     <t>4X1120</t>
   </si>
   <si>
-    <t>4X400</t>
-  </si>
-  <si>
     <t>4x1120</t>
+  </si>
+  <si>
+    <t>6X1250</t>
+  </si>
+  <si>
+    <t>4x315</t>
   </si>
 </sst>
 </file>
@@ -417,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,16 +468,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1116,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6">
         <v>2</v>
@@ -1139,7 +1129,7 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J2" s="6">
         <v>1250</v>
@@ -1151,23 +1141,23 @@
         <v>2.3099999999999999E-2</v>
       </c>
       <c r="M2" s="6">
-        <f>4*1163</f>
-        <v>4652</v>
+        <f>6*1163</f>
+        <v>6978</v>
       </c>
       <c r="N2" s="7">
         <v>0.79300000000000004</v>
       </c>
       <c r="O2" s="8">
         <f t="shared" ref="O2:O12" si="0">L2/D2</f>
-        <v>5.7749999999999998E-3</v>
+        <v>3.8499999999999997E-3</v>
       </c>
       <c r="P2" s="9">
-        <f>(0.2*LN(R2/S2))/1000</f>
-        <v>7.6696329277679809E-4</v>
+        <f>0.00067825</f>
+        <v>6.7825000000000003E-4</v>
       </c>
       <c r="Q2" s="9">
-        <f>(1/(18*LN(R2/Z2)))/1000000</f>
-        <v>1.4709559290261134E-8</v>
+        <f>(16.570796)/1000000000</f>
+        <v>1.6570796000000001E-8</v>
       </c>
       <c r="R2" s="9">
         <f>($K$30*$K$31*$K$32)^(1/3)</f>
@@ -1175,23 +1165,23 @@
       </c>
       <c r="S2" s="9">
         <f>(N2*D2*(K2/2000)*($K$29)^(D2-1))^(1/D2)</f>
-        <v>0.16332585971011701</v>
+        <v>0.19065751611420573</v>
       </c>
       <c r="Z2" s="10">
         <f>(D2*(K2/2000)*($K$29)^(D2-1))^(1/4)</f>
-        <v>0.17307592288778786</v>
+        <v>8.8219095211230086E-2</v>
       </c>
       <c r="AA2" s="8">
-        <f>O2*B2</f>
-        <v>0.57750000000000001</v>
+        <f t="shared" ref="AA2:AA12" si="1">O2*B2</f>
+        <v>0.38499999999999995</v>
       </c>
       <c r="AB2" s="9">
-        <f>2*PI()*50*P2*B2</f>
-        <v>24.094862461606269</v>
+        <f t="shared" ref="AB2:AB12" si="2">2*PI()*50*P2*B2</f>
+        <v>21.307852172972773</v>
       </c>
       <c r="AC2" s="10">
-        <f>2*PI()*50*Q2*B2</f>
-        <v>4.6211443403827869E-4</v>
+        <f t="shared" ref="AC2:AC12" si="3">2*PI()*50*Q2*B2</f>
+        <v>5.2058690977735129E-4</v>
       </c>
     </row>
     <row r="3" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1218,7 +1208,7 @@
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="12">
         <v>1250</v>
@@ -1241,11 +1231,11 @@
         <v>1.155E-2</v>
       </c>
       <c r="P3" s="15">
-        <f>(0.2*LN(R3/S3))/1000</f>
+        <f t="shared" ref="P2:P12" si="4">(0.2*LN(R3/S3))/1000</f>
         <v>5.4894496490705822E-4</v>
       </c>
       <c r="Q3" s="15">
-        <f>(1/(18*LN(R3/Z3)))/1000000</f>
+        <f t="shared" ref="Q2:Q12" si="5">(1/(18*LN(R3/Z3)))/1000000</f>
         <v>2.1133759264263627E-8</v>
       </c>
       <c r="R3" s="15">
@@ -1285,15 +1275,15 @@
         <v>0.49690907619721175</v>
       </c>
       <c r="AA3" s="14">
-        <f>O3*B3</f>
+        <f t="shared" si="1"/>
         <v>1.617</v>
       </c>
       <c r="AB3" s="15">
-        <f>2*PI()*50*P3*B3</f>
+        <f t="shared" si="2"/>
         <v>24.143860565679695</v>
       </c>
       <c r="AC3" s="16">
-        <f>2*PI()*50*Q3*B3</f>
+        <f t="shared" si="3"/>
         <v>9.2951127986284183E-4</v>
       </c>
     </row>
@@ -1321,7 +1311,7 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="6">
         <v>1120</v>
@@ -1340,119 +1330,143 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" ref="O4" si="1">L4/D4</f>
+        <f t="shared" ref="O4" si="6">L4/D4</f>
         <v>6.45E-3</v>
       </c>
       <c r="P4" s="9">
-        <f>(0.2*LN(R4/S4))/1000</f>
+        <f t="shared" si="4"/>
         <v>7.6969621340369136E-4</v>
       </c>
       <c r="Q4" s="9">
-        <f>(1/(18*LN(R4/Z4)))/1000000</f>
+        <f t="shared" si="5"/>
         <v>1.4656531881411231E-8</v>
       </c>
       <c r="R4" s="9">
-        <f>($K$30*$K$31*$K$32)^(1/3)</f>
+        <f t="shared" ref="R4:R12" si="7">($K$30*$K$31*$K$32)^(1/3)</f>
         <v>7.5595262993692396</v>
       </c>
       <c r="S4" s="9">
-        <f>(N4*D4*(K4/2000)*($K$29)^(D4-1))^(1/D4)</f>
+        <f t="shared" ref="S4:S12" si="8">(N4*D4*(K4/2000)*($K$29)^(D4-1))^(1/D4)</f>
         <v>0.16110925565345949</v>
       </c>
       <c r="Z4" s="10">
-        <f>(D4*(K4/2000)*($K$29)^(D4-1))^(1/4)</f>
+        <f t="shared" ref="Z4:Z12" si="9">(D4*(K4/2000)*($K$29)^(D4-1))^(1/4)</f>
         <v>0.17072699422784554</v>
       </c>
       <c r="AA4" s="8">
-        <f>O4*B4</f>
+        <f t="shared" si="1"/>
         <v>0.90300000000000002</v>
       </c>
       <c r="AB4" s="9">
-        <f>2*PI()*50*P4*B4</f>
+        <f t="shared" si="2"/>
         <v>33.853007573348862</v>
       </c>
       <c r="AC4" s="10">
-        <f>2*PI()*50*Q4*B4</f>
+        <f t="shared" si="3"/>
         <v>6.446279404004456E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="12">
         <v>200</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="6">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="C5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="12">
         <v>2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
         <v>100</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="12">
         <v>400</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="6">
-        <v>400</v>
-      </c>
-      <c r="K5" s="6">
-        <v>27.63</v>
-      </c>
-      <c r="L5" s="6">
-        <v>7.2300000000000003E-2</v>
-      </c>
-      <c r="M5" s="6">
-        <f>4*610</f>
-        <v>2440</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="O5" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8075000000000001E-2</v>
-      </c>
-      <c r="P5" s="9">
-        <f>(0.2*LN(R5/S5))/1000</f>
-        <v>7.9252678114435276E-4</v>
-      </c>
-      <c r="Q5" s="9">
-        <f>(1/(18*LN(R5/Z5)))/1000000</f>
-        <v>1.4209872809669307E-8</v>
-      </c>
-      <c r="R5" s="9">
-        <f>($K$30*$K$31*$K$32)^(1/3)</f>
-        <v>7.5595262993692396</v>
-      </c>
-      <c r="S5" s="9">
-        <f>(N5*D5*(K5/2000)*($K$29)^(D5-1))^(1/D5)</f>
-        <v>0.14372904608324424</v>
-      </c>
-      <c r="Z5" s="10">
-        <f>(D5*(K5/2000)*($K$29)^(D5-1))^(1/4)</f>
-        <v>0.15155051370265804</v>
-      </c>
-      <c r="AA5" s="8">
-        <f>O5*B5</f>
-        <v>3.6150000000000002</v>
-      </c>
-      <c r="AB5" s="9">
-        <f>2*PI()*50*P5*B5</f>
-        <v>49.795926268325289</v>
-      </c>
-      <c r="AC5" s="10">
-        <f>2*PI()*50*Q5*B5</f>
-        <v>8.9283264054604891E-4</v>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1250</v>
+      </c>
+      <c r="K5" s="12">
+        <v>47</v>
+      </c>
+      <c r="L5" s="12">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="M5" s="12">
+        <f>2*1163</f>
+        <v>2326</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="O5" s="14">
+        <f>L5/D5</f>
+        <v>1.155E-2</v>
+      </c>
+      <c r="P5" s="15">
+        <f t="shared" ref="P5" si="10">(0.2*LN(R5/S5))/1000</f>
+        <v>5.4894496490705822E-4</v>
+      </c>
+      <c r="Q5" s="15">
+        <f t="shared" ref="Q5" si="11">(1/(18*LN(R5/Z5)))/1000000</f>
+        <v>2.1133759264263627E-8</v>
+      </c>
+      <c r="R5" s="15">
+        <f>($G$27*$G$28*$G$29)^(1/3)</f>
+        <v>6.8854506296087745</v>
+      </c>
+      <c r="S5" s="15">
+        <f>(T5*U5*V5)^(1/3)</f>
+        <v>0.44250025265041704</v>
+      </c>
+      <c r="T5" s="15">
+        <f>SQRT(N5*(K5/(2*1000))*$E$34)</f>
+        <v>0.47370997010099314</v>
+      </c>
+      <c r="U5" s="15">
+        <f>SQRT(N5*(K5/(2*1000))*$E$28)</f>
+        <v>0.38611397281113774</v>
+      </c>
+      <c r="V5" s="15">
+        <f>T5</f>
+        <v>0.47370997010099314</v>
+      </c>
+      <c r="W5" s="15">
+        <f>SQRT(K5/(2*1000)*$E$34)</f>
+        <v>0.53195626944479091</v>
+      </c>
+      <c r="X5" s="15">
+        <f>SQRT(K5/(2*1000)*$E$28)</f>
+        <v>0.43358966777357599</v>
+      </c>
+      <c r="Y5" s="15">
+        <f>W5</f>
+        <v>0.53195626944479091</v>
+      </c>
+      <c r="Z5" s="16">
+        <f>(W5*X5*Y5)^(1/3)</f>
+        <v>0.49690907619721175</v>
+      </c>
+      <c r="AA5" s="14">
+        <f t="shared" ref="AA5" si="12">O5*B5</f>
+        <v>2.31</v>
+      </c>
+      <c r="AB5" s="15">
+        <f t="shared" ref="AB5" si="13">2*PI()*50*P5*B5</f>
+        <v>34.491229379542418</v>
+      </c>
+      <c r="AC5" s="16">
+        <f t="shared" ref="AC5" si="14">2*PI()*50*Q5*B5</f>
+        <v>1.3278732569469169E-3</v>
       </c>
     </row>
     <row r="6" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1502,35 +1516,35 @@
         <v>1.4449999999999999E-2</v>
       </c>
       <c r="P6" s="9">
-        <f>(0.2*LN(R6/S6))/1000</f>
+        <f t="shared" si="4"/>
         <v>7.8698264616541543E-4</v>
       </c>
       <c r="Q6" s="9">
-        <f>(1/(18*LN(R6/Z6)))/1000000</f>
+        <f t="shared" si="5"/>
         <v>1.431134497919412E-8</v>
       </c>
       <c r="R6" s="9">
-        <f>($K$30*$K$31*$K$32)^(1/3)</f>
+        <f t="shared" si="7"/>
         <v>7.5595262993692396</v>
       </c>
       <c r="S6" s="9">
-        <f>(N6*D6*(K6/2000)*($K$29)^(D6-1))^(1/D6)</f>
+        <f t="shared" si="8"/>
         <v>0.14776904934755214</v>
       </c>
       <c r="Z6" s="10">
-        <f>(D6*(K6/2000)*($K$29)^(D6-1))^(1/4)</f>
+        <f t="shared" si="9"/>
         <v>0.15581036643772503</v>
       </c>
       <c r="AA6" s="8">
-        <f>O6*B6</f>
+        <f t="shared" si="1"/>
         <v>2.0229999999999997</v>
       </c>
       <c r="AB6" s="9">
-        <f>2*PI()*50*P6*B6</f>
+        <f t="shared" si="2"/>
         <v>34.613304595742946</v>
       </c>
       <c r="AC6" s="10">
-        <f>2*PI()*50*Q6*B6</f>
+        <f t="shared" si="3"/>
         <v>6.2944582749475584E-4</v>
       </c>
     </row>
@@ -1558,7 +1572,7 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J7" s="6">
         <v>1120</v>
@@ -1581,35 +1595,35 @@
         <v>6.45E-3</v>
       </c>
       <c r="P7" s="9">
-        <f>(0.2*LN(R7/S7))/1000</f>
+        <f t="shared" si="4"/>
         <v>7.6969621340369136E-4</v>
       </c>
       <c r="Q7" s="9">
-        <f>(1/(18*LN(R7/Z7)))/1000000</f>
+        <f t="shared" si="5"/>
         <v>1.4656531881411231E-8</v>
       </c>
       <c r="R7" s="9">
-        <f>($K$30*$K$31*$K$32)^(1/3)</f>
+        <f t="shared" si="7"/>
         <v>7.5595262993692396</v>
       </c>
       <c r="S7" s="9">
-        <f>(N7*D7*(K7/2000)*($K$29)^(D7-1))^(1/D7)</f>
+        <f t="shared" si="8"/>
         <v>0.16110925565345949</v>
       </c>
       <c r="Z7" s="10">
-        <f>(D7*(K7/2000)*($K$29)^(D7-1))^(1/4)</f>
+        <f t="shared" si="9"/>
         <v>0.17072699422784554</v>
       </c>
       <c r="AA7" s="8">
-        <f>O7*B7</f>
+        <f t="shared" si="1"/>
         <v>0.90300000000000002</v>
       </c>
       <c r="AB7" s="9">
-        <f>2*PI()*50*P7*B7</f>
+        <f t="shared" si="2"/>
         <v>33.853007573348862</v>
       </c>
       <c r="AC7" s="10">
-        <f>2*PI()*50*Q7*B7</f>
+        <f t="shared" si="3"/>
         <v>6.446279404004456E-4</v>
       </c>
     </row>
@@ -1637,7 +1651,7 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J8" s="6">
         <v>1120</v>
@@ -1656,39 +1670,39 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" ref="O8" si="2">L8/D8</f>
+        <f t="shared" ref="O8" si="15">L8/D8</f>
         <v>6.45E-3</v>
       </c>
       <c r="P8" s="9">
-        <f>(0.2*LN(R8/S8))/1000</f>
+        <f t="shared" si="4"/>
         <v>7.6969621340369136E-4</v>
       </c>
       <c r="Q8" s="9">
-        <f>(1/(18*LN(R8/Z8)))/1000000</f>
+        <f t="shared" si="5"/>
         <v>1.4656531881411231E-8</v>
       </c>
       <c r="R8" s="9">
-        <f>($K$30*$K$31*$K$32)^(1/3)</f>
+        <f t="shared" si="7"/>
         <v>7.5595262993692396</v>
       </c>
       <c r="S8" s="9">
-        <f>(N8*D8*(K8/2000)*($K$29)^(D8-1))^(1/D8)</f>
+        <f t="shared" si="8"/>
         <v>0.16110925565345949</v>
       </c>
       <c r="Z8" s="10">
-        <f>(D8*(K8/2000)*($K$29)^(D8-1))^(1/4)</f>
+        <f t="shared" si="9"/>
         <v>0.17072699422784554</v>
       </c>
       <c r="AA8" s="8">
-        <f>O8*B8</f>
+        <f t="shared" si="1"/>
         <v>0.64500000000000002</v>
       </c>
       <c r="AB8" s="9">
-        <f>2*PI()*50*P8*B8</f>
+        <f t="shared" si="2"/>
         <v>24.180719695249188</v>
       </c>
       <c r="AC8" s="10">
-        <f>2*PI()*50*Q8*B8</f>
+        <f t="shared" si="3"/>
         <v>4.6044852885746115E-4</v>
       </c>
     </row>
@@ -1735,39 +1749,39 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" ref="O9:O11" si="3">L9/D9</f>
+        <f t="shared" ref="O9:O11" si="16">L9/D9</f>
         <v>9.0500000000000008E-3</v>
       </c>
       <c r="P9" s="9">
-        <f>(0.2*LN(R9/S9))/1000</f>
+        <f t="shared" si="4"/>
         <v>7.7524039702774549E-4</v>
       </c>
       <c r="Q9" s="9">
-        <f>(1/(18*LN(R9/Z9)))/1000000</f>
+        <f t="shared" si="5"/>
         <v>1.4532292782018124E-8</v>
       </c>
       <c r="R9" s="9">
-        <f>($K$30*$K$31*$K$32)^(1/3)</f>
+        <f t="shared" si="7"/>
         <v>7.5595262993692396</v>
       </c>
       <c r="S9" s="9">
-        <f>(N9*D9*(K9/2000)*($K$29)^(D9-1))^(1/D9)</f>
+        <f t="shared" si="8"/>
         <v>0.1567044932639442</v>
       </c>
       <c r="Z9" s="10">
-        <f>(D9*(K9/2000)*($K$29)^(D9-1))^(1/4)</f>
+        <f t="shared" si="9"/>
         <v>0.16528316067999876</v>
       </c>
       <c r="AA9" s="8">
-        <f>O9*B9</f>
+        <f t="shared" si="1"/>
         <v>0.90500000000000003</v>
       </c>
       <c r="AB9" s="9">
-        <f>2*PI()*50*P9*B9</f>
+        <f t="shared" si="2"/>
         <v>24.354895360683997</v>
       </c>
       <c r="AC9" s="10">
-        <f>2*PI()*50*Q9*B9</f>
+        <f t="shared" si="3"/>
         <v>4.5654544243804116E-4</v>
       </c>
     </row>
@@ -1782,7 +1796,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
@@ -1795,59 +1809,59 @@
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J10" s="6">
-        <v>1120</v>
+        <v>1250</v>
       </c>
       <c r="K10" s="6">
-        <v>44.5</v>
+        <v>47</v>
       </c>
       <c r="L10" s="6">
-        <v>2.58E-2</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="M10" s="6">
-        <f>4*1096</f>
-        <v>4384</v>
+        <f>6*1163</f>
+        <v>6978</v>
       </c>
       <c r="N10" s="7">
         <v>0.79300000000000004</v>
       </c>
       <c r="O10" s="8">
+        <f t="shared" si="16"/>
+        <v>3.8499999999999997E-3</v>
+      </c>
+      <c r="P10" s="9">
+        <f>0.00067825</f>
+        <v>6.7825000000000003E-4</v>
+      </c>
+      <c r="Q10" s="9">
+        <f>(16.570796)/1000000000</f>
+        <v>1.6570796000000001E-8</v>
+      </c>
+      <c r="R10" s="9">
+        <f t="shared" si="7"/>
+        <v>7.5595262993692396</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="8"/>
+        <v>0.19065751611420573</v>
+      </c>
+      <c r="Z10" s="10">
+        <f t="shared" si="9"/>
+        <v>8.8219095211230086E-2</v>
+      </c>
+      <c r="AA10" s="8">
+        <f t="shared" si="1"/>
+        <v>0.53899999999999992</v>
+      </c>
+      <c r="AB10" s="9">
+        <f t="shared" si="2"/>
+        <v>29.830993042161886</v>
+      </c>
+      <c r="AC10" s="10">
         <f t="shared" si="3"/>
-        <v>6.45E-3</v>
-      </c>
-      <c r="P10" s="9">
-        <f>(0.2*LN(R10/S10))/1000</f>
-        <v>7.6969621340369136E-4</v>
-      </c>
-      <c r="Q10" s="9">
-        <f>(1/(18*LN(R10/Z10)))/1000000</f>
-        <v>1.4656531881411231E-8</v>
-      </c>
-      <c r="R10" s="9">
-        <f>($K$30*$K$31*$K$32)^(1/3)</f>
-        <v>7.5595262993692396</v>
-      </c>
-      <c r="S10" s="9">
-        <f>(N10*D10*(K10/2000)*($K$29)^(D10-1))^(1/D10)</f>
-        <v>0.16110925565345949</v>
-      </c>
-      <c r="Z10" s="10">
-        <f>(D10*(K10/2000)*($K$29)^(D10-1))^(1/4)</f>
-        <v>0.17072699422784554</v>
-      </c>
-      <c r="AA10" s="8">
-        <f>O10*B10</f>
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="AB10" s="9">
-        <f>2*PI()*50*P10*B10</f>
-        <v>33.853007573348862</v>
-      </c>
-      <c r="AC10" s="10">
-        <f>2*PI()*50*Q10*B10</f>
-        <v>6.446279404004456E-4</v>
+        <v>7.2882167368829194E-4</v>
       </c>
     </row>
     <row r="11" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1893,39 +1907,39 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="O11" s="8">
+        <f t="shared" si="16"/>
+        <v>9.0500000000000008E-3</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="4"/>
+        <v>7.7524039702774549E-4</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="5"/>
+        <v>1.4532292782018124E-8</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="7"/>
+        <v>7.5595262993692396</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="8"/>
+        <v>0.1567044932639442</v>
+      </c>
+      <c r="Z11" s="10">
+        <f t="shared" si="9"/>
+        <v>0.16528316067999876</v>
+      </c>
+      <c r="AA11" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0272000000000001</v>
+      </c>
+      <c r="AB11" s="9">
+        <f t="shared" si="2"/>
+        <v>54.554965607932154</v>
+      </c>
+      <c r="AC11" s="10">
         <f t="shared" si="3"/>
-        <v>9.0500000000000008E-3</v>
-      </c>
-      <c r="P11" s="9">
-        <f>(0.2*LN(R11/S11))/1000</f>
-        <v>7.7524039702774549E-4</v>
-      </c>
-      <c r="Q11" s="9">
-        <f>(1/(18*LN(R11/Z11)))/1000000</f>
-        <v>1.4532292782018124E-8</v>
-      </c>
-      <c r="R11" s="9">
-        <f>($K$30*$K$31*$K$32)^(1/3)</f>
-        <v>7.5595262993692396</v>
-      </c>
-      <c r="S11" s="9">
-        <f>(N11*D11*(K11/2000)*($K$29)^(D11-1))^(1/D11)</f>
-        <v>0.1567044932639442</v>
-      </c>
-      <c r="Z11" s="10">
-        <f>(D11*(K11/2000)*($K$29)^(D11-1))^(1/4)</f>
-        <v>0.16528316067999876</v>
-      </c>
-      <c r="AA11" s="8">
-        <f>O11*B11</f>
-        <v>2.0272000000000001</v>
-      </c>
-      <c r="AB11" s="9">
-        <f>2*PI()*50*P11*B11</f>
-        <v>54.554965607932154</v>
-      </c>
-      <c r="AC11" s="10">
-        <f>2*PI()*50*Q11*B11</f>
         <v>1.0226617910612122E-3</v>
       </c>
     </row>
@@ -1953,80 +1967,78 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="J12" s="6">
-        <v>500</v>
+        <v>315</v>
       </c>
       <c r="K12" s="6">
-        <v>30.87</v>
+        <v>24.87</v>
       </c>
       <c r="L12" s="6">
-        <v>5.7799999999999997E-2</v>
+        <v>9.1700000000000004E-2</v>
       </c>
       <c r="M12" s="6">
-        <f>4*697</f>
-        <v>2788</v>
+        <f>4*530</f>
+        <v>2120</v>
       </c>
       <c r="N12" s="7">
-        <v>0.80900000000000005</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" si="0"/>
-        <v>1.4449999999999999E-2</v>
+        <v>2.2925000000000001E-2</v>
       </c>
       <c r="P12" s="9">
-        <f>(0.2*LN(R12/S12))/1000</f>
-        <v>7.8698264616541543E-4</v>
+        <f t="shared" si="4"/>
+        <v>7.9766531834750724E-4</v>
       </c>
       <c r="Q12" s="9">
-        <f>(1/(18*LN(R12/Z12)))/1000000</f>
-        <v>1.431134497919412E-8</v>
+        <f t="shared" si="5"/>
+        <v>1.4114886624187618E-8</v>
       </c>
       <c r="R12" s="9">
-        <f>($K$30*$K$31*$K$32)^(1/3)</f>
+        <f t="shared" si="7"/>
         <v>7.5595262993692396</v>
       </c>
       <c r="S12" s="9">
-        <f>(N12*D12*(K12/2000)*($K$29)^(D12-1))^(1/D12)</f>
-        <v>0.14776904934755214</v>
+        <f t="shared" si="8"/>
+        <v>0.14008329593650809</v>
       </c>
       <c r="Z12" s="10">
-        <f>(D12*(K12/2000)*($K$29)^(D12-1))^(1/4)</f>
-        <v>0.15581036643772503</v>
+        <f t="shared" si="9"/>
+        <v>0.14761521992539417</v>
       </c>
       <c r="AA12" s="8">
-        <f>O12*B12</f>
-        <v>2.0229999999999997</v>
+        <f t="shared" si="1"/>
+        <v>3.2095000000000002</v>
       </c>
       <c r="AB12" s="9">
-        <f>2*PI()*50*P12*B12</f>
-        <v>34.613304595742946</v>
+        <f t="shared" si="2"/>
+        <v>35.083153058014496</v>
       </c>
       <c r="AC12" s="10">
-        <f>2*PI()*50*Q12*B12</f>
-        <v>6.2944582749475584E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" s="34" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>6.2080513774720924E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
       <c r="N13" s="31"/>
-      <c r="O13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="35"/>
-      <c r="AC13" s="36"/>
+      <c r="AA13" s="23"/>
+      <c r="AC13" s="27"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AA14" s="5" t="s">
@@ -2034,11 +2046,11 @@
       </c>
       <c r="AB14" s="9">
         <f>AB2/B2</f>
-        <v>0.2409486246160627</v>
+        <v>0.21307852172972772</v>
       </c>
       <c r="AC14" s="10">
         <f>Q2*10^9</f>
-        <v>14.709559290261133</v>
+        <v>16.570796000000001</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -2046,11 +2058,11 @@
         <v>32</v>
       </c>
       <c r="AB15" s="15">
-        <f t="shared" ref="AB15:AB24" si="4">AB3/B3</f>
+        <f t="shared" ref="AB15:AB24" si="17">AB3/B3</f>
         <v>0.1724561468977121</v>
       </c>
       <c r="AC15" s="16">
-        <f t="shared" ref="AC15:AC24" si="5">Q3*10^9</f>
+        <f t="shared" ref="AC15:AC24" si="18">Q3*10^9</f>
         <v>21.133759264263627</v>
       </c>
     </row>
@@ -2059,11 +2071,11 @@
         <v>33</v>
       </c>
       <c r="AB16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0.24180719695249187</v>
       </c>
       <c r="AC16" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>14.656531881411231</v>
       </c>
     </row>
@@ -2072,12 +2084,12 @@
         <v>36</v>
       </c>
       <c r="AB17" s="9">
-        <f t="shared" si="4"/>
-        <v>0.24897963134162646</v>
+        <f t="shared" si="17"/>
+        <v>0.17245614689771208</v>
       </c>
       <c r="AC17" s="10">
-        <f t="shared" si="5"/>
-        <v>14.209872809669307</v>
+        <f t="shared" si="18"/>
+        <v>21.133759264263627</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -2085,11 +2097,11 @@
         <v>37</v>
       </c>
       <c r="AB18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0.24723788996959248</v>
       </c>
       <c r="AC18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>14.31134497919412</v>
       </c>
     </row>
@@ -2098,11 +2110,11 @@
         <v>39</v>
       </c>
       <c r="AB19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0.24180719695249187</v>
       </c>
       <c r="AC19" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>14.656531881411231</v>
       </c>
     </row>
@@ -2111,11 +2123,11 @@
         <v>41</v>
       </c>
       <c r="AB20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0.24180719695249187</v>
       </c>
       <c r="AC20" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>14.656531881411231</v>
       </c>
     </row>
@@ -2124,11 +2136,11 @@
         <v>42</v>
       </c>
       <c r="AB21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0.24354895360683998</v>
       </c>
       <c r="AC21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>14.532292782018123</v>
       </c>
     </row>
@@ -2137,12 +2149,12 @@
         <v>66</v>
       </c>
       <c r="AB22" s="9">
-        <f t="shared" si="4"/>
-        <v>0.24180719695249187</v>
+        <f t="shared" si="17"/>
+        <v>0.21307852172972774</v>
       </c>
       <c r="AC22" s="10">
-        <f t="shared" si="5"/>
-        <v>14.656531881411231</v>
+        <f t="shared" si="18"/>
+        <v>16.570796000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -2150,11 +2162,11 @@
         <v>67</v>
       </c>
       <c r="AB23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0.24354895360683998</v>
       </c>
       <c r="AC23" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>14.532292782018123</v>
       </c>
     </row>
@@ -2163,12 +2175,12 @@
         <v>68</v>
       </c>
       <c r="AB24" s="9">
-        <f t="shared" si="4"/>
-        <v>0.24723788996959248</v>
+        <f t="shared" si="17"/>
+        <v>0.25059395041438925</v>
       </c>
       <c r="AC24" s="10">
-        <f t="shared" si="5"/>
-        <v>14.31134497919412</v>
+        <f t="shared" si="18"/>
+        <v>14.114886624187617</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>

--- a/Line_Calculations/Case 1 Lines.xlsx
+++ b/Line_Calculations/Case 1 Lines.xlsx
@@ -5,24 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\AppData\Local\Programs\Python\Python38-32\GITHUB\Assignement 2\PowerSystem2\Line_Calculations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ED_carlos\Documents\GitHub\PowerSystem2\Line_Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138B78DC-658F-49F3-A3E0-6CF4DFE52EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E9E928-C14E-4629-843C-2BAF29BF7437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-480" yWindow="735" windowWidth="21600" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>Line</t>
   </si>
@@ -255,6 +258,9 @@
   </si>
   <si>
     <t>4x315</t>
+  </si>
+  <si>
+    <t>2X800</t>
   </si>
 </sst>
 </file>
@@ -991,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,11 +1237,11 @@
         <v>1.155E-2</v>
       </c>
       <c r="P3" s="15">
-        <f t="shared" ref="P2:P12" si="4">(0.2*LN(R3/S3))/1000</f>
+        <f t="shared" ref="P3:P12" si="4">(0.2*LN(R3/S3))/1000</f>
         <v>5.4894496490705822E-4</v>
       </c>
       <c r="Q3" s="15">
-        <f t="shared" ref="Q2:Q12" si="5">(1/(18*LN(R3/Z3)))/1000000</f>
+        <f t="shared" ref="Q3:Q12" si="5">(1/(18*LN(R3/Z3)))/1000000</f>
         <v>2.1133759264263627E-8</v>
       </c>
       <c r="R3" s="15">
@@ -1292,7 +1298,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="6">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>34</v>
@@ -1355,15 +1361,15 @@
       </c>
       <c r="AA4" s="8">
         <f t="shared" si="1"/>
-        <v>0.90300000000000002</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="AB4" s="9">
         <f t="shared" si="2"/>
-        <v>33.853007573348862</v>
+        <v>24.180719695249188</v>
       </c>
       <c r="AC4" s="10">
         <f t="shared" si="3"/>
-        <v>6.446279404004456E-4</v>
+        <v>4.6044852885746115E-4</v>
       </c>
     </row>
     <row r="5" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1390,35 +1396,35 @@
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J5" s="12">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="K5" s="12">
-        <v>47</v>
+        <v>39.090000000000003</v>
       </c>
       <c r="L5" s="12">
-        <v>2.3099999999999999E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="M5" s="12">
-        <f>2*1163</f>
-        <v>2326</v>
+        <f>2*916</f>
+        <v>1832</v>
       </c>
       <c r="N5" s="13">
-        <v>0.79300000000000004</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="O5" s="14">
         <f>L5/D5</f>
-        <v>1.155E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="P5" s="15">
         <f t="shared" ref="P5" si="10">(0.2*LN(R5/S5))/1000</f>
-        <v>5.4894496490705822E-4</v>
+        <v>5.6549917340895279E-4</v>
       </c>
       <c r="Q5" s="15">
         <f t="shared" ref="Q5" si="11">(1/(18*LN(R5/Z5)))/1000000</f>
-        <v>2.1133759264263627E-8</v>
+        <v>2.0418086195739056E-8</v>
       </c>
       <c r="R5" s="15">
         <f>($G$27*$G$28*$G$29)^(1/3)</f>
@@ -1426,47 +1432,47 @@
       </c>
       <c r="S5" s="15">
         <f>(T5*U5*V5)^(1/3)</f>
-        <v>0.44250025265041704</v>
+        <v>0.40734887007095533</v>
       </c>
       <c r="T5" s="15">
         <f>SQRT(N5*(K5/(2*1000))*$E$34)</f>
-        <v>0.47370997010099314</v>
+        <v>0.43607934663583453</v>
       </c>
       <c r="U5" s="15">
         <f>SQRT(N5*(K5/(2*1000))*$E$28)</f>
-        <v>0.38611397281113774</v>
+        <v>0.35544180958350979</v>
       </c>
       <c r="V5" s="15">
         <f>T5</f>
-        <v>0.47370997010099314</v>
+        <v>0.43607934663583453</v>
       </c>
       <c r="W5" s="15">
         <f>SQRT(K5/(2*1000)*$E$34)</f>
-        <v>0.53195626944479091</v>
+        <v>0.48513190581788729</v>
       </c>
       <c r="X5" s="15">
         <f>SQRT(K5/(2*1000)*$E$28)</f>
-        <v>0.43358966777357599</v>
+        <v>0.39542382325803288</v>
       </c>
       <c r="Y5" s="15">
         <f>W5</f>
-        <v>0.53195626944479091</v>
+        <v>0.48513190581788729</v>
       </c>
       <c r="Z5" s="16">
         <f>(W5*X5*Y5)^(1/3)</f>
-        <v>0.49690907619721175</v>
+        <v>0.45316967014104942</v>
       </c>
       <c r="AA5" s="14">
         <f t="shared" ref="AA5" si="12">O5*B5</f>
-        <v>2.31</v>
+        <v>3.62</v>
       </c>
       <c r="AB5" s="15">
         <f t="shared" ref="AB5" si="13">2*PI()*50*P5*B5</f>
-        <v>34.491229379542418</v>
+        <v>35.531360975853332</v>
       </c>
       <c r="AC5" s="16">
         <f t="shared" ref="AC5" si="14">2*PI()*50*Q5*B5</f>
-        <v>1.3278732569469169E-3</v>
+        <v>1.2829061918579398E-3</v>
       </c>
     </row>
     <row r="6" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2085,11 +2091,11 @@
       </c>
       <c r="AB17" s="9">
         <f t="shared" si="17"/>
-        <v>0.17245614689771208</v>
+        <v>0.17765680487926666</v>
       </c>
       <c r="AC17" s="10">
         <f t="shared" si="18"/>
-        <v>21.133759264263627</v>
+        <v>20.418086195739058</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
